--- a/public/files/dados.xlsx
+++ b/public/files/dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steferson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BuildSoft\desenvolvimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CAD41-AC52-4303-B692-29A57C9A1371}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="convenios" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="convenios" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\steferson\Dropbox\4_Projetos\Virtualenvs\diario-oficial\processing\convenios.csv" decimal="," thousands="." tab="0" delimiter="#">
       <textFields count="17">
         <textField/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1413">
   <si>
     <t>C_ANO</t>
   </si>
@@ -4291,12 +4292,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pavimentação Asfáltica de Vias Urbanas no Município de Poção de Pedras/MA. - </t>
+  </si>
+  <si>
+    <t>4223970.62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4326,9 +4330,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4347,7 +4352,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convenios" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="convenios" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4612,19 +4617,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D197" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -4651,10 +4657,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -4674,7 +4680,7 @@
       <c r="B2" t="s">
         <v>297</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E2" t="s">
@@ -4694,10 +4700,10 @@
       <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E3" t="s">
@@ -4717,10 +4723,10 @@
       <c r="B4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E4" t="s">
@@ -4740,10 +4746,10 @@
       <c r="B5" t="s">
         <v>207</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E5" t="s">
@@ -4763,10 +4769,10 @@
       <c r="B6" t="s">
         <v>207</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E6" t="s">
@@ -4786,10 +4792,10 @@
       <c r="B7" t="s">
         <v>207</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E7" t="s">
@@ -4809,10 +4815,10 @@
       <c r="B8" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E8" t="s">
@@ -4832,7 +4838,7 @@
       <c r="B9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E9" t="s">
@@ -4852,10 +4858,10 @@
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E10" t="s">
@@ -4875,10 +4881,10 @@
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E11" t="s">
@@ -4898,10 +4904,10 @@
       <c r="B12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="E12" t="s">
@@ -4921,7 +4927,7 @@
       <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E13" t="s">
@@ -4941,7 +4947,7 @@
       <c r="B14" t="s">
         <v>248</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E14" t="s">
@@ -4961,7 +4967,7 @@
       <c r="B15" t="s">
         <v>324</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E15" t="s">
@@ -4981,10 +4987,10 @@
       <c r="B16" t="s">
         <v>237</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E16" t="s">
@@ -5004,7 +5010,7 @@
       <c r="B17" t="s">
         <v>294</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E17" t="s">
@@ -5024,10 +5030,10 @@
       <c r="B18" t="s">
         <v>315</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E18" t="s">
@@ -5047,7 +5053,7 @@
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
@@ -5067,7 +5073,7 @@
       <c r="B20" t="s">
         <v>273</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>274</v>
       </c>
       <c r="E20" t="s">
@@ -5087,10 +5093,10 @@
       <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E21" t="s">
@@ -5110,7 +5116,7 @@
       <c r="B22" t="s">
         <v>327</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E22" t="s">
@@ -5130,10 +5136,10 @@
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
@@ -5153,10 +5159,10 @@
       <c r="B24" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E24" t="s">
@@ -5176,7 +5182,7 @@
       <c r="B25" t="s">
         <v>140</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E25" t="s">
@@ -5196,10 +5202,10 @@
       <c r="B26" t="s">
         <v>277</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
@@ -5219,7 +5225,7 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
@@ -5239,7 +5245,7 @@
       <c r="B28" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E28" t="s">
@@ -5259,7 +5265,7 @@
       <c r="B29" t="s">
         <v>158</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E29" t="s">
@@ -5279,7 +5285,7 @@
       <c r="B30" t="s">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E30" t="s">
@@ -5299,7 +5305,7 @@
       <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E31" t="s">
@@ -5319,7 +5325,7 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E32" t="s">
@@ -5339,7 +5345,7 @@
       <c r="B33" t="s">
         <v>165</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E33" t="s">
@@ -5359,7 +5365,7 @@
       <c r="B34" t="s">
         <v>167</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E34" t="s">
@@ -5379,7 +5385,7 @@
       <c r="B35" t="s">
         <v>169</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E35" t="s">
@@ -5399,7 +5405,7 @@
       <c r="B36" t="s">
         <v>171</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E36" t="s">
@@ -5419,7 +5425,7 @@
       <c r="B37" t="s">
         <v>173</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E37" t="s">
@@ -5439,7 +5445,7 @@
       <c r="B38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E38" t="s">
@@ -5459,7 +5465,7 @@
       <c r="B39" t="s">
         <v>178</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E39" t="s">
@@ -5479,7 +5485,7 @@
       <c r="B40" t="s">
         <v>180</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E40" t="s">
@@ -5499,7 +5505,7 @@
       <c r="B41" t="s">
         <v>182</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E41" t="s">
@@ -5519,7 +5525,7 @@
       <c r="B42" t="s">
         <v>185</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E42" t="s">
@@ -5539,7 +5545,7 @@
       <c r="B43" t="s">
         <v>188</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E43" t="s">
@@ -5559,7 +5565,7 @@
       <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E44" t="s">
@@ -5579,7 +5585,7 @@
       <c r="B45" t="s">
         <v>192</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E45" t="s">
@@ -5599,7 +5605,7 @@
       <c r="B46" t="s">
         <v>195</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E46" t="s">
@@ -5619,7 +5625,7 @@
       <c r="B47" t="s">
         <v>197</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E47" t="s">
@@ -5639,7 +5645,7 @@
       <c r="B48" t="s">
         <v>199</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E48" t="s">
@@ -5659,7 +5665,7 @@
       <c r="B49" t="s">
         <v>202</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E49" t="s">
@@ -5679,10 +5685,10 @@
       <c r="B50" t="s">
         <v>233</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E50" t="s">
@@ -5702,10 +5708,10 @@
       <c r="B51" t="s">
         <v>266</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E51" t="s">
@@ -5725,7 +5731,7 @@
       <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E52" t="s">
@@ -5745,10 +5751,10 @@
       <c r="B53" t="s">
         <v>97</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E53" t="s">
@@ -5768,7 +5774,7 @@
       <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E54" t="s">
@@ -5788,10 +5794,10 @@
       <c r="B55" t="s">
         <v>252</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E55" t="s">
@@ -5811,10 +5817,10 @@
       <c r="B56" t="s">
         <v>242</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E56" t="s">
@@ -5834,10 +5840,10 @@
       <c r="B57" t="s">
         <v>91</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E57" t="s">
@@ -5857,10 +5863,10 @@
       <c r="B58" t="s">
         <v>103</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E58" t="s">
@@ -5880,10 +5886,10 @@
       <c r="B59" t="s">
         <v>204</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E59" t="s">
@@ -5903,10 +5909,10 @@
       <c r="B60" t="s">
         <v>310</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E60" t="s">
@@ -5926,10 +5932,10 @@
       <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E61" t="s">
@@ -5949,10 +5955,10 @@
       <c r="B62" t="s">
         <v>319</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E62" t="s">
@@ -5972,10 +5978,10 @@
       <c r="B63" t="s">
         <v>262</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E63" t="s">
@@ -5995,7 +6001,7 @@
       <c r="B64" t="s">
         <v>287</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E64" t="s">
@@ -6015,7 +6021,7 @@
       <c r="B65" t="s">
         <v>291</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E65" t="s">
@@ -6035,10 +6041,10 @@
       <c r="B66" t="s">
         <v>43</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E66" t="s">
@@ -6058,10 +6064,10 @@
       <c r="B67" t="s">
         <v>322</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E67" t="s">
@@ -6081,7 +6087,7 @@
       <c r="B68" t="s">
         <v>25</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E68" t="s">
@@ -6101,10 +6107,10 @@
       <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E69" t="s">
@@ -6124,7 +6130,7 @@
       <c r="B70" t="s">
         <v>147</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E70" t="s">
@@ -6144,10 +6150,10 @@
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E71" t="s">
@@ -6167,10 +6173,10 @@
       <c r="B72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
@@ -6190,7 +6196,7 @@
       <c r="B73" t="s">
         <v>284</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E73" t="s">
@@ -6210,7 +6216,7 @@
       <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F74">
@@ -6227,10 +6233,10 @@
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E75" t="s">
@@ -6250,7 +6256,7 @@
       <c r="B76" t="s">
         <v>39</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E76" t="s">
@@ -6270,7 +6276,7 @@
       <c r="B77" t="s">
         <v>59</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E77" t="s">
@@ -6290,7 +6296,7 @@
       <c r="B78" t="s">
         <v>107</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E78" t="s">
@@ -6310,7 +6316,7 @@
       <c r="B79" t="s">
         <v>137</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E79" t="s">
@@ -6330,10 +6336,10 @@
       <c r="B80" t="s">
         <v>39</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E80" t="s">
@@ -6353,7 +6359,7 @@
       <c r="B81" t="s">
         <v>281</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>282</v>
       </c>
       <c r="E81" t="s">
@@ -6373,7 +6379,7 @@
       <c r="B82" t="s">
         <v>15</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
@@ -6393,10 +6399,10 @@
       <c r="B83" t="s">
         <v>570</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F83">
@@ -6413,7 +6419,7 @@
       <c r="B84" t="s">
         <v>584</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>585</v>
       </c>
       <c r="E84" t="s">
@@ -6433,10 +6439,10 @@
       <c r="B85" t="s">
         <v>651</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E85" t="s">
@@ -6456,10 +6462,10 @@
       <c r="B86" t="s">
         <v>337</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E86" t="s">
@@ -6479,10 +6485,10 @@
       <c r="B87" t="s">
         <v>340</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E87" t="s">
@@ -6502,10 +6508,10 @@
       <c r="B88" t="s">
         <v>344</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E88" t="s">
@@ -6525,10 +6531,10 @@
       <c r="B89" t="s">
         <v>348</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>350</v>
       </c>
       <c r="E89" t="s">
@@ -6548,10 +6554,10 @@
       <c r="B90" t="s">
         <v>352</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E90" t="s">
@@ -6571,10 +6577,10 @@
       <c r="B91" t="s">
         <v>356</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E91" t="s">
@@ -6594,10 +6600,10 @@
       <c r="B92" t="s">
         <v>424</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E92" t="s">
@@ -6617,10 +6623,10 @@
       <c r="B93" t="s">
         <v>427</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>428</v>
       </c>
       <c r="E93" t="s">
@@ -6640,10 +6646,10 @@
       <c r="B94" t="s">
         <v>430</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E94" t="s">
@@ -6663,10 +6669,10 @@
       <c r="B95" t="s">
         <v>531</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F95">
@@ -6683,10 +6689,10 @@
       <c r="B96" t="s">
         <v>582</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>403</v>
       </c>
       <c r="F96">
@@ -6703,10 +6709,10 @@
       <c r="B97" t="s">
         <v>668</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>670</v>
       </c>
       <c r="E97" t="s">
@@ -6726,7 +6732,7 @@
       <c r="B98" t="s">
         <v>360</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E98" t="s">
@@ -6746,7 +6752,7 @@
       <c r="B99" t="s">
         <v>377</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E99" t="s">
@@ -6766,7 +6772,7 @@
       <c r="B100" t="s">
         <v>686</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>687</v>
       </c>
       <c r="E100" t="s">
@@ -6786,10 +6792,10 @@
       <c r="B101" t="s">
         <v>488</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E101" t="s">
@@ -6809,7 +6815,7 @@
       <c r="B102" t="s">
         <v>606</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>607</v>
       </c>
       <c r="F102">
@@ -6826,7 +6832,7 @@
       <c r="B103" t="s">
         <v>611</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E103" t="s">
@@ -6846,10 +6852,10 @@
       <c r="B104" t="s">
         <v>477</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E104" t="s">
@@ -6869,10 +6875,10 @@
       <c r="B105" t="s">
         <v>641</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>643</v>
       </c>
       <c r="E105" t="s">
@@ -6892,10 +6898,10 @@
       <c r="B106" t="s">
         <v>383</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E106" t="s">
@@ -6915,10 +6921,10 @@
       <c r="B107" t="s">
         <v>496</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E107" t="s">
@@ -6938,10 +6944,10 @@
       <c r="B108" t="s">
         <v>491</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E108" t="s">
@@ -6961,10 +6967,10 @@
       <c r="B109" t="s">
         <v>387</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E109" t="s">
@@ -6984,10 +6990,10 @@
       <c r="B110" t="s">
         <v>178</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E110" t="s">
@@ -7007,10 +7013,10 @@
       <c r="B111" t="s">
         <v>362</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E111" t="s">
@@ -7030,10 +7036,10 @@
       <c r="B112" t="s">
         <v>421</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E112" t="s">
@@ -7053,7 +7059,7 @@
       <c r="B113" t="s">
         <v>462</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>463</v>
       </c>
       <c r="E113" t="s">
@@ -7073,10 +7079,10 @@
       <c r="B114" t="s">
         <v>516</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
@@ -7096,10 +7102,10 @@
       <c r="B115" t="s">
         <v>596</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>598</v>
       </c>
       <c r="E115" t="s">
@@ -7119,10 +7125,10 @@
       <c r="B116" t="s">
         <v>600</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E116" t="s">
@@ -7142,10 +7148,10 @@
       <c r="B117" t="s">
         <v>401</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>403</v>
       </c>
       <c r="E117" t="s">
@@ -7165,7 +7171,7 @@
       <c r="B118" t="s">
         <v>436</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>437</v>
       </c>
       <c r="E118" t="s">
@@ -7185,10 +7191,10 @@
       <c r="B119" t="s">
         <v>502</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
@@ -7208,10 +7214,10 @@
       <c r="B120" t="s">
         <v>618</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E120" t="s">
@@ -7231,7 +7237,7 @@
       <c r="B121" t="s">
         <v>459</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>460</v>
       </c>
       <c r="E121" t="s">
@@ -7251,7 +7257,7 @@
       <c r="B122" t="s">
         <v>609</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>610</v>
       </c>
       <c r="E122" t="s">
@@ -7271,10 +7277,10 @@
       <c r="B123" t="s">
         <v>474</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>476</v>
       </c>
       <c r="E123" t="s">
@@ -7294,10 +7300,10 @@
       <c r="B124" t="s">
         <v>630</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E124" t="s">
@@ -7317,7 +7323,7 @@
       <c r="B125" t="s">
         <v>374</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>375</v>
       </c>
       <c r="F125">
@@ -7334,10 +7340,10 @@
       <c r="B126" t="s">
         <v>379</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
@@ -7357,7 +7363,7 @@
       <c r="B127" t="s">
         <v>395</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E127" t="s">
@@ -7377,7 +7383,7 @@
       <c r="B128" t="s">
         <v>398</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E128" t="s">
@@ -7397,7 +7403,7 @@
       <c r="B129" t="s">
         <v>456</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E129" t="s">
@@ -7417,10 +7423,10 @@
       <c r="B130" t="s">
         <v>370</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E130" t="s">
@@ -7440,7 +7446,7 @@
       <c r="B131" t="s">
         <v>446</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>447</v>
       </c>
       <c r="E131" t="s">
@@ -7460,10 +7466,10 @@
       <c r="B132" t="s">
         <v>511</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>513</v>
       </c>
       <c r="E132" t="s">
@@ -7483,10 +7489,10 @@
       <c r="B133" t="s">
         <v>566</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F133">
@@ -7503,7 +7509,7 @@
       <c r="B134" t="s">
         <v>367</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E134" t="s">
@@ -7523,7 +7529,7 @@
       <c r="B135" t="s">
         <v>392</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E135" t="s">
@@ -7543,10 +7549,10 @@
       <c r="B136" t="s">
         <v>543</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
@@ -7566,10 +7572,10 @@
       <c r="B137" t="s">
         <v>550</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>552</v>
       </c>
       <c r="F137">
@@ -7586,10 +7592,10 @@
       <c r="B138" t="s">
         <v>656</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E138" t="s">
@@ -7609,10 +7615,10 @@
       <c r="B139" t="s">
         <v>522</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F139">
@@ -7629,7 +7635,7 @@
       <c r="B140" t="s">
         <v>613</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>614</v>
       </c>
       <c r="E140" t="s">
@@ -7649,10 +7655,10 @@
       <c r="B141" t="s">
         <v>664</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>666</v>
       </c>
       <c r="E141" t="s">
@@ -7672,10 +7678,10 @@
       <c r="B142" t="s">
         <v>679</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>681</v>
       </c>
       <c r="F142">
@@ -7692,10 +7698,10 @@
       <c r="B143" t="s">
         <v>472</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E143" t="s">
@@ -7715,10 +7721,10 @@
       <c r="B144" t="s">
         <v>546</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E144" t="s">
@@ -7738,7 +7744,7 @@
       <c r="B145" t="s">
         <v>590</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>591</v>
       </c>
       <c r="E145" t="s">
@@ -7758,10 +7764,10 @@
       <c r="B146" t="s">
         <v>576</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F146">
@@ -7778,7 +7784,7 @@
       <c r="B147" t="s">
         <v>464</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>465</v>
       </c>
       <c r="E147" t="s">
@@ -7798,10 +7804,10 @@
       <c r="B148" t="s">
         <v>534</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E148" t="s">
@@ -7821,10 +7827,10 @@
       <c r="B149" t="s">
         <v>587</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>539</v>
       </c>
       <c r="E149" t="s">
@@ -7844,10 +7850,10 @@
       <c r="B150" t="s">
         <v>646</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E150" t="s">
@@ -7867,10 +7873,10 @@
       <c r="B151" t="s">
         <v>555</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F151">
@@ -7887,10 +7893,10 @@
       <c r="B152" t="s">
         <v>505</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E152" t="s">
@@ -7910,10 +7916,10 @@
       <c r="B153" t="s">
         <v>518</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
@@ -7933,10 +7939,10 @@
       <c r="B154" t="s">
         <v>560</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1" t="s">
         <v>561</v>
       </c>
       <c r="F154">
@@ -7953,7 +7959,7 @@
       <c r="B155" t="s">
         <v>334</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E155" t="s">
@@ -7973,10 +7979,10 @@
       <c r="B156" t="s">
         <v>480</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>482</v>
       </c>
       <c r="E156" t="s">
@@ -7996,7 +8002,7 @@
       <c r="B157" t="s">
         <v>528</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E157" t="s">
@@ -8016,10 +8022,10 @@
       <c r="B158" t="s">
         <v>486</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E158" t="s">
@@ -8039,10 +8045,10 @@
       <c r="B159" t="s">
         <v>653</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E159" t="s">
@@ -8062,10 +8068,10 @@
       <c r="B160" t="s">
         <v>470</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E160" t="s">
@@ -8085,10 +8091,10 @@
       <c r="B161" t="s">
         <v>644</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E161" t="s">
@@ -8108,10 +8114,10 @@
       <c r="B162" t="s">
         <v>520</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F162">
@@ -8128,10 +8134,10 @@
       <c r="B163" t="s">
         <v>520</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F163">
@@ -8148,7 +8154,7 @@
       <c r="B164" t="s">
         <v>637</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>638</v>
       </c>
       <c r="E164" t="s">
@@ -8168,10 +8174,10 @@
       <c r="B165" t="s">
         <v>416</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>415</v>
       </c>
       <c r="E165" t="s">
@@ -8191,7 +8197,7 @@
       <c r="B166" t="s">
         <v>408</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E166" t="s">
@@ -8211,10 +8217,10 @@
       <c r="B167" t="s">
         <v>410</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>411</v>
       </c>
       <c r="E167" t="s">
@@ -8234,7 +8240,7 @@
       <c r="B168" t="s">
         <v>616</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>617</v>
       </c>
       <c r="F168">
@@ -8251,10 +8257,10 @@
       <c r="B169" t="s">
         <v>672</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>674</v>
       </c>
       <c r="E169" t="s">
@@ -8274,7 +8280,7 @@
       <c r="B170" t="s">
         <v>682</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>683</v>
       </c>
       <c r="E170" t="s">
@@ -8294,7 +8300,7 @@
       <c r="B171" t="s">
         <v>451</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>452</v>
       </c>
       <c r="E171" t="s">
@@ -8314,7 +8320,7 @@
       <c r="B172" t="s">
         <v>433</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E172" t="s">
@@ -8334,10 +8340,10 @@
       <c r="B173" t="s">
         <v>405</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>403</v>
       </c>
       <c r="E173" t="s">
@@ -8357,7 +8363,7 @@
       <c r="B174" t="s">
         <v>444</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E174" t="s">
@@ -8377,10 +8383,10 @@
       <c r="B175" t="s">
         <v>558</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F175">
@@ -8397,10 +8403,10 @@
       <c r="B176" t="s">
         <v>621</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E176" t="s">
@@ -8420,10 +8426,10 @@
       <c r="B177" t="s">
         <v>627</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E177" t="s">
@@ -8443,10 +8449,10 @@
       <c r="B178" t="s">
         <v>562</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>564</v>
       </c>
       <c r="F178">
@@ -8463,10 +8469,10 @@
       <c r="B179" t="s">
         <v>494</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
@@ -8486,10 +8492,10 @@
       <c r="B180" t="s">
         <v>592</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>594</v>
       </c>
       <c r="E180" t="s">
@@ -8509,10 +8515,10 @@
       <c r="B181" t="s">
         <v>649</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E181" t="s">
@@ -8532,7 +8538,7 @@
       <c r="B182" t="s">
         <v>466</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>467</v>
       </c>
       <c r="E182" t="s">
@@ -8552,7 +8558,7 @@
       <c r="B183" t="s">
         <v>449</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>450</v>
       </c>
       <c r="E183" t="s">
@@ -8572,10 +8578,10 @@
       <c r="B184" t="s">
         <v>634</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>636</v>
       </c>
       <c r="E184" t="s">
@@ -8595,10 +8601,10 @@
       <c r="B185" t="s">
         <v>483</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E185" t="s">
@@ -8618,7 +8624,7 @@
       <c r="B186" t="s">
         <v>453</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>454</v>
       </c>
       <c r="E186" t="s">
@@ -8638,10 +8644,10 @@
       <c r="B187" t="s">
         <v>508</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E187" t="s">
@@ -8661,7 +8667,7 @@
       <c r="B188" t="s">
         <v>553</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="2" t="s">
         <v>554</v>
       </c>
       <c r="F188">
@@ -8678,7 +8684,7 @@
       <c r="B189" t="s">
         <v>438</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E189" t="s">
@@ -8698,10 +8704,10 @@
       <c r="B190" t="s">
         <v>625</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E190" t="s">
@@ -8721,7 +8727,7 @@
       <c r="B191" t="s">
         <v>525</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="2" t="s">
         <v>526</v>
       </c>
       <c r="E191" t="s">
@@ -8741,10 +8747,10 @@
       <c r="B192" t="s">
         <v>579</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F192">
@@ -8761,10 +8767,10 @@
       <c r="B193" t="s">
         <v>580</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>581</v>
       </c>
       <c r="F193">
@@ -8781,7 +8787,7 @@
       <c r="B194" t="s">
         <v>623</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>624</v>
       </c>
       <c r="E194" t="s">
@@ -8801,7 +8807,7 @@
       <c r="B195" t="s">
         <v>662</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>663</v>
       </c>
       <c r="E195" t="s">
@@ -8821,7 +8827,7 @@
       <c r="B196" t="s">
         <v>676</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>677</v>
       </c>
       <c r="E196" t="s">
@@ -8841,7 +8847,7 @@
       <c r="B197" t="s">
         <v>269</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>420</v>
       </c>
       <c r="F197">
@@ -8858,7 +8864,7 @@
       <c r="B198" t="s">
         <v>604</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="2" t="s">
         <v>270</v>
       </c>
       <c r="E198" t="s">
@@ -8878,10 +8884,10 @@
       <c r="B199" t="s">
         <v>639</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E199" t="s">
@@ -8901,7 +8907,7 @@
       <c r="B200" t="s">
         <v>39</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E200" t="s">
@@ -8921,7 +8927,7 @@
       <c r="B201" t="s">
         <v>499</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>500</v>
       </c>
       <c r="E201" t="s">
@@ -8941,7 +8947,7 @@
       <c r="B202" t="s">
         <v>659</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="2" t="s">
         <v>660</v>
       </c>
       <c r="E202" t="s">
@@ -8961,10 +8967,10 @@
       <c r="B203" t="s">
         <v>537</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="1" t="s">
         <v>539</v>
       </c>
       <c r="E203" t="s">
@@ -8984,10 +8990,10 @@
       <c r="B204" t="s">
         <v>573</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F204">
@@ -9004,7 +9010,7 @@
       <c r="B205" t="s">
         <v>442</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>443</v>
       </c>
       <c r="E205" t="s">
@@ -9024,10 +9030,10 @@
       <c r="B206" t="s">
         <v>756</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="1" t="s">
         <v>758</v>
       </c>
       <c r="E206" t="s">
@@ -9047,10 +9053,10 @@
       <c r="B207" t="s">
         <v>839</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E207" t="s">
@@ -9070,7 +9076,7 @@
       <c r="B208" t="s">
         <v>919</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="2" t="s">
         <v>920</v>
       </c>
       <c r="E208" t="s">
@@ -9090,7 +9096,7 @@
       <c r="B209" t="s">
         <v>702</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="2" t="s">
         <v>703</v>
       </c>
       <c r="E209" t="s">
@@ -9110,10 +9116,10 @@
       <c r="B210" t="s">
         <v>1061</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E210" t="s">
@@ -9133,7 +9139,7 @@
       <c r="B211" t="s">
         <v>909</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="2" t="s">
         <v>910</v>
       </c>
       <c r="E211" t="s">
@@ -9153,7 +9159,7 @@
       <c r="B212" t="s">
         <v>733</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E212" t="s">
@@ -9173,7 +9179,7 @@
       <c r="B213" t="s">
         <v>746</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E213" t="s">
@@ -9193,7 +9199,7 @@
       <c r="B214" t="s">
         <v>747</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E214" t="s">
@@ -9213,7 +9219,7 @@
       <c r="B215" t="s">
         <v>748</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E215" t="s">
@@ -9233,7 +9239,7 @@
       <c r="B216" t="s">
         <v>749</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E216" t="s">
@@ -9253,7 +9259,7 @@
       <c r="B217" t="s">
         <v>751</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E217" t="s">
@@ -9273,7 +9279,7 @@
       <c r="B218" t="s">
         <v>692</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="2" t="s">
         <v>693</v>
       </c>
       <c r="E218" t="s">
@@ -9293,10 +9299,10 @@
       <c r="B219" t="s">
         <v>822</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E219" t="s">
@@ -9316,10 +9322,10 @@
       <c r="B220" t="s">
         <v>801</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E220" t="s">
@@ -9339,10 +9345,10 @@
       <c r="B221" t="s">
         <v>846</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E221" t="s">
@@ -9362,7 +9368,7 @@
       <c r="B222" t="s">
         <v>914</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="2" t="s">
         <v>915</v>
       </c>
       <c r="E222" t="s">
@@ -9382,7 +9388,7 @@
       <c r="B223" t="s">
         <v>970</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="2" t="s">
         <v>971</v>
       </c>
       <c r="E223" t="s">
@@ -9402,10 +9408,10 @@
       <c r="B224" t="s">
         <v>1068</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E224" t="s">
@@ -9425,7 +9431,7 @@
       <c r="B225" t="s">
         <v>1042</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="F225">
@@ -9442,7 +9448,7 @@
       <c r="B226" t="s">
         <v>1074</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="F226">
@@ -9459,10 +9465,10 @@
       <c r="B227" t="s">
         <v>700</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="1" t="s">
         <v>855</v>
       </c>
       <c r="E227" t="s">
@@ -9482,10 +9488,10 @@
       <c r="B228" t="s">
         <v>804</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="1" t="s">
         <v>857</v>
       </c>
       <c r="E228" t="s">
@@ -9505,10 +9511,10 @@
       <c r="B229" t="s">
         <v>804</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="1" t="s">
         <v>860</v>
       </c>
       <c r="E229" t="s">
@@ -9528,10 +9534,10 @@
       <c r="B230" t="s">
         <v>862</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="1" t="s">
         <v>863</v>
       </c>
       <c r="E230" t="s">
@@ -9551,10 +9557,10 @@
       <c r="B231" t="s">
         <v>872</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>874</v>
       </c>
       <c r="F231">
@@ -9571,7 +9577,7 @@
       <c r="B232" t="s">
         <v>875</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="2" t="s">
         <v>873</v>
       </c>
       <c r="F232">
@@ -9588,7 +9594,7 @@
       <c r="B233" t="s">
         <v>1033</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="2" t="s">
         <v>1034</v>
       </c>
       <c r="E233" t="s">
@@ -9608,7 +9614,7 @@
       <c r="B234" t="s">
         <v>700</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="2" t="s">
         <v>701</v>
       </c>
       <c r="F234">
@@ -9625,7 +9631,7 @@
       <c r="B235" t="s">
         <v>1044</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="F235">
@@ -9642,7 +9648,7 @@
       <c r="B236" t="s">
         <v>787</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="2" t="s">
         <v>788</v>
       </c>
       <c r="F236">
@@ -9659,10 +9665,10 @@
       <c r="B237" t="s">
         <v>769</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E237" t="s">
@@ -9682,7 +9688,7 @@
       <c r="B238" t="s">
         <v>797</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="2" t="s">
         <v>798</v>
       </c>
       <c r="E238" t="s">
@@ -9702,7 +9708,7 @@
       <c r="B239" t="s">
         <v>981</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="2" t="s">
         <v>982</v>
       </c>
       <c r="F239">
@@ -9719,10 +9725,10 @@
       <c r="B240" t="s">
         <v>779</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E240" t="s">
@@ -9742,7 +9748,7 @@
       <c r="B241" t="s">
         <v>808</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="2" t="s">
         <v>809</v>
       </c>
       <c r="E241" t="s">
@@ -9762,10 +9768,10 @@
       <c r="B242" t="s">
         <v>1021</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E242" t="s">
@@ -9785,10 +9791,10 @@
       <c r="B243" t="s">
         <v>876</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E243" t="s">
@@ -9808,7 +9814,7 @@
       <c r="B244" t="s">
         <v>895</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="2" t="s">
         <v>896</v>
       </c>
       <c r="E244" t="s">
@@ -9828,7 +9834,7 @@
       <c r="B245" t="s">
         <v>869</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="2" t="s">
         <v>870</v>
       </c>
       <c r="F245">
@@ -9845,7 +9851,7 @@
       <c r="B246" t="s">
         <v>782</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="2" t="s">
         <v>783</v>
       </c>
       <c r="F246">
@@ -9862,7 +9868,7 @@
       <c r="B247" t="s">
         <v>1040</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="E247" t="s">
@@ -9882,7 +9888,7 @@
       <c r="B248" t="s">
         <v>730</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="2" t="s">
         <v>731</v>
       </c>
       <c r="E248" t="s">
@@ -9902,7 +9908,7 @@
       <c r="B249" t="s">
         <v>916</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="2" t="s">
         <v>917</v>
       </c>
       <c r="E249" t="s">
@@ -9922,7 +9928,7 @@
       <c r="B250" t="s">
         <v>987</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="2" t="s">
         <v>988</v>
       </c>
       <c r="E250" t="s">
@@ -9942,10 +9948,10 @@
       <c r="B251" t="s">
         <v>1005</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="F251">
@@ -9962,10 +9968,10 @@
       <c r="B252" t="s">
         <v>761</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="1" t="s">
         <v>763</v>
       </c>
       <c r="E252" t="s">
@@ -9985,10 +9991,10 @@
       <c r="B253" t="s">
         <v>832</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E253" t="s">
@@ -10008,10 +10014,10 @@
       <c r="B254" t="s">
         <v>711</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="1" t="s">
         <v>713</v>
       </c>
       <c r="E254" t="s">
@@ -10031,7 +10037,7 @@
       <c r="B255" t="s">
         <v>906</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="2" t="s">
         <v>907</v>
       </c>
       <c r="E255" t="s">
@@ -10051,10 +10057,10 @@
       <c r="B256" t="s">
         <v>931</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="1" t="s">
         <v>933</v>
       </c>
       <c r="E256" t="s">
@@ -10074,7 +10080,7 @@
       <c r="B257" t="s">
         <v>938</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="2" t="s">
         <v>939</v>
       </c>
       <c r="E257" t="s">
@@ -10094,10 +10100,10 @@
       <c r="B258" t="s">
         <v>941</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="1" t="s">
         <v>943</v>
       </c>
       <c r="E258" t="s">
@@ -10117,10 +10123,10 @@
       <c r="B259" t="s">
         <v>945</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="1" t="s">
         <v>947</v>
       </c>
       <c r="E259" t="s">
@@ -10140,7 +10146,7 @@
       <c r="B260" t="s">
         <v>949</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="2" t="s">
         <v>950</v>
       </c>
       <c r="E260" t="s">
@@ -10160,10 +10166,10 @@
       <c r="B261" t="s">
         <v>952</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="1" t="s">
         <v>954</v>
       </c>
       <c r="E261" t="s">
@@ -10183,10 +10189,10 @@
       <c r="B262" t="s">
         <v>1026</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="E262" t="s">
@@ -10206,7 +10212,7 @@
       <c r="B263" t="s">
         <v>689</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="2" t="s">
         <v>690</v>
       </c>
       <c r="E263" t="s">
@@ -10226,7 +10232,7 @@
       <c r="B264" t="s">
         <v>812</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="2" t="s">
         <v>813</v>
       </c>
       <c r="E264" t="s">
@@ -10246,7 +10252,7 @@
       <c r="B265" t="s">
         <v>841</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="2" t="s">
         <v>842</v>
       </c>
       <c r="E265" t="s">
@@ -10266,10 +10272,10 @@
       <c r="B266" t="s">
         <v>961</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="1" t="s">
         <v>806</v>
       </c>
       <c r="E266" t="s">
@@ -10289,7 +10295,7 @@
       <c r="B267" t="s">
         <v>998</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="2" t="s">
         <v>999</v>
       </c>
       <c r="F267">
@@ -10306,10 +10312,10 @@
       <c r="B268" t="s">
         <v>1013</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E268" t="s">
@@ -10329,7 +10335,7 @@
       <c r="B269" t="s">
         <v>700</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="2" t="s">
         <v>1051</v>
       </c>
       <c r="E269" t="s">
@@ -10349,10 +10355,10 @@
       <c r="B270" t="s">
         <v>700</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="1" t="s">
         <v>965</v>
       </c>
       <c r="E270" t="s">
@@ -10372,7 +10378,7 @@
       <c r="B271" t="s">
         <v>990</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="2" t="s">
         <v>991</v>
       </c>
       <c r="E271" t="s">
@@ -10392,7 +10398,7 @@
       <c r="B272" t="s">
         <v>817</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="2" t="s">
         <v>818</v>
       </c>
       <c r="E272" t="s">
@@ -10412,10 +10418,10 @@
       <c r="B273" t="s">
         <v>1086</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E273" t="s">
@@ -10435,7 +10441,7 @@
       <c r="B274" t="s">
         <v>721</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="2" t="s">
         <v>722</v>
       </c>
       <c r="E274" t="s">
@@ -10455,10 +10461,10 @@
       <c r="B275" t="s">
         <v>775</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E275" t="s">
@@ -10478,10 +10484,10 @@
       <c r="B276" t="s">
         <v>934</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E276" t="s">
@@ -10501,10 +10507,10 @@
       <c r="B277" t="s">
         <v>978</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="1" t="s">
         <v>979</v>
       </c>
       <c r="E277" t="s">
@@ -10524,10 +10530,10 @@
       <c r="B278" t="s">
         <v>1019</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E278" t="s">
@@ -10547,7 +10553,7 @@
       <c r="B279" t="s">
         <v>1031</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="2" t="s">
         <v>1032</v>
       </c>
       <c r="E279" t="s">
@@ -10567,7 +10573,7 @@
       <c r="B280" t="s">
         <v>1056</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="E280" t="s">
@@ -10587,7 +10593,7 @@
       <c r="B281" t="s">
         <v>820</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F281">
@@ -10604,7 +10610,7 @@
       <c r="B282" t="s">
         <v>995</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="2" t="s">
         <v>996</v>
       </c>
       <c r="E282" t="s">
@@ -10624,7 +10630,7 @@
       <c r="B283" t="s">
         <v>1065</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="2" t="s">
         <v>1066</v>
       </c>
       <c r="E283" t="s">
@@ -10644,7 +10650,7 @@
       <c r="B284" t="s">
         <v>923</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="2" t="s">
         <v>924</v>
       </c>
       <c r="E284" t="s">
@@ -10664,10 +10670,10 @@
       <c r="B285" t="s">
         <v>1003</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E285" t="s">
@@ -10687,10 +10693,10 @@
       <c r="B286" t="s">
         <v>771</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E286" t="s">
@@ -10710,10 +10716,10 @@
       <c r="B287" t="s">
         <v>1024</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E287" t="s">
@@ -10733,7 +10739,7 @@
       <c r="B288" t="s">
         <v>696</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="2" t="s">
         <v>697</v>
       </c>
       <c r="E288" t="s">
@@ -10753,7 +10759,7 @@
       <c r="B289" t="s">
         <v>814</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="2" t="s">
         <v>815</v>
       </c>
       <c r="E289" t="s">
@@ -10773,7 +10779,7 @@
       <c r="B290" t="s">
         <v>825</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="2" t="s">
         <v>826</v>
       </c>
       <c r="F290">
@@ -10790,7 +10796,7 @@
       <c r="B291" t="s">
         <v>851</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="2" t="s">
         <v>852</v>
       </c>
       <c r="E291" t="s">
@@ -10810,7 +10816,7 @@
       <c r="B292" t="s">
         <v>928</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="2" t="s">
         <v>929</v>
       </c>
       <c r="E292" t="s">
@@ -10830,7 +10836,7 @@
       <c r="B293" t="s">
         <v>727</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="2" t="s">
         <v>728</v>
       </c>
       <c r="E293" t="s">
@@ -10850,7 +10856,7 @@
       <c r="B294" t="s">
         <v>983</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="2" t="s">
         <v>984</v>
       </c>
       <c r="E294" t="s">
@@ -10870,10 +10876,10 @@
       <c r="B295" t="s">
         <v>804</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="1" t="s">
         <v>806</v>
       </c>
       <c r="E295" t="s">
@@ -10893,7 +10899,7 @@
       <c r="B296" t="s">
         <v>992</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="2" t="s">
         <v>993</v>
       </c>
       <c r="E296" t="s">
@@ -10913,7 +10919,7 @@
       <c r="B297" t="s">
         <v>742</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="2" t="s">
         <v>743</v>
       </c>
       <c r="E297" t="s">
@@ -10933,7 +10939,7 @@
       <c r="B298" t="s">
         <v>745</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="2" t="s">
         <v>743</v>
       </c>
       <c r="E298" t="s">
@@ -10953,10 +10959,10 @@
       <c r="B299" t="s">
         <v>794</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E299" t="s">
@@ -10976,10 +10982,10 @@
       <c r="B300" t="s">
         <v>828</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="1" t="s">
         <v>830</v>
       </c>
       <c r="E300" t="s">
@@ -10999,10 +11005,10 @@
       <c r="B301" t="s">
         <v>884</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E301" t="s">
@@ -11022,7 +11028,7 @@
       <c r="B302" t="s">
         <v>790</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="2" t="s">
         <v>791</v>
       </c>
       <c r="E302" t="s">
@@ -11042,10 +11048,10 @@
       <c r="B303" t="s">
         <v>836</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E303" t="s">
@@ -11065,7 +11071,7 @@
       <c r="B304" t="s">
         <v>39</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E304" t="s">
@@ -11085,7 +11091,7 @@
       <c r="B305" t="s">
         <v>709</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="2" t="s">
         <v>710</v>
       </c>
       <c r="F305">
@@ -11102,7 +11108,7 @@
       <c r="B306" t="s">
         <v>724</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="2" t="s">
         <v>725</v>
       </c>
       <c r="E306" t="s">
@@ -11122,7 +11128,7 @@
       <c r="B307" t="s">
         <v>887</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="2" t="s">
         <v>888</v>
       </c>
       <c r="E307" t="s">
@@ -11142,7 +11148,7 @@
       <c r="B308" t="s">
         <v>958</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="2" t="s">
         <v>959</v>
       </c>
       <c r="E308" t="s">
@@ -11162,10 +11168,10 @@
       <c r="B309" t="s">
         <v>1007</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E309" t="s">
@@ -11185,7 +11191,7 @@
       <c r="B310" t="s">
         <v>902</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="2" t="s">
         <v>903</v>
       </c>
       <c r="E310" t="s">
@@ -11205,7 +11211,7 @@
       <c r="B311" t="s">
         <v>1017</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F311">
@@ -11222,10 +11228,10 @@
       <c r="B312" t="s">
         <v>844</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E312" t="s">
@@ -11245,7 +11251,7 @@
       <c r="B313" t="s">
         <v>706</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="2" t="s">
         <v>707</v>
       </c>
       <c r="F313">
@@ -11262,10 +11268,10 @@
       <c r="B314" t="s">
         <v>849</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E314" t="s">
@@ -11285,10 +11291,10 @@
       <c r="B315" t="s">
         <v>866</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E315" t="s">
@@ -11308,7 +11314,7 @@
       <c r="B316" t="s">
         <v>926</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="2" t="s">
         <v>927</v>
       </c>
       <c r="E316" t="s">
@@ -11328,7 +11334,7 @@
       <c r="B317" t="s">
         <v>739</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="2" t="s">
         <v>740</v>
       </c>
       <c r="E317" t="s">
@@ -11348,7 +11354,7 @@
       <c r="B318" t="s">
         <v>911</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="2" t="s">
         <v>912</v>
       </c>
       <c r="E318" t="s">
@@ -11368,10 +11374,10 @@
       <c r="B319" t="s">
         <v>1000</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E319" t="s">
@@ -11391,7 +11397,7 @@
       <c r="B320" t="s">
         <v>1035</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="2" t="s">
         <v>1036</v>
       </c>
       <c r="E320" t="s">
@@ -11411,7 +11417,7 @@
       <c r="B321" t="s">
         <v>1046</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="2" t="s">
         <v>1047</v>
       </c>
       <c r="E321" t="s">
@@ -11431,7 +11437,7 @@
       <c r="B322" t="s">
         <v>899</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="2" t="s">
         <v>900</v>
       </c>
       <c r="E322" t="s">
@@ -11451,7 +11457,7 @@
       <c r="B323" t="s">
         <v>892</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="2" t="s">
         <v>893</v>
       </c>
       <c r="E323" t="s">
@@ -11471,10 +11477,10 @@
       <c r="B324" t="s">
         <v>1010</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E324" t="s">
@@ -11494,7 +11500,7 @@
       <c r="B325" t="s">
         <v>1049</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="2" t="s">
         <v>973</v>
       </c>
       <c r="E325" t="s">
@@ -11514,7 +11520,7 @@
       <c r="B326" t="s">
         <v>736</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="2" t="s">
         <v>737</v>
       </c>
       <c r="E326" t="s">
@@ -11534,10 +11540,10 @@
       <c r="B327" t="s">
         <v>784</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E327" t="s">
@@ -11557,7 +11563,7 @@
       <c r="B328" t="s">
         <v>890</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="2" t="s">
         <v>891</v>
       </c>
       <c r="E328" t="s">
@@ -11577,10 +11583,10 @@
       <c r="B329" t="s">
         <v>1029</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="1" t="s">
         <v>331</v>
       </c>
       <c r="E329" t="s">
@@ -11600,7 +11606,7 @@
       <c r="B330" t="s">
         <v>897</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="2" t="s">
         <v>898</v>
       </c>
       <c r="E330" t="s">
@@ -11620,7 +11626,7 @@
       <c r="B331" t="s">
         <v>1076</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="E331" t="s">
@@ -11640,10 +11646,10 @@
       <c r="B332" t="s">
         <v>1080</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E332" t="s">
@@ -11663,7 +11669,7 @@
       <c r="B333" t="s">
         <v>956</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="2" t="s">
         <v>957</v>
       </c>
       <c r="F333">
@@ -11680,10 +11686,10 @@
       <c r="B334" t="s">
         <v>1015</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E334" t="s">
@@ -11703,10 +11709,10 @@
       <c r="B335" t="s">
         <v>879</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E335" t="s">
@@ -11726,10 +11732,10 @@
       <c r="B336" t="s">
         <v>967</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E336" t="s">
@@ -11749,10 +11755,10 @@
       <c r="B337" t="s">
         <v>1072</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E337" t="s">
@@ -11772,7 +11778,7 @@
       <c r="B338" t="s">
         <v>1038</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="2" t="s">
         <v>1039</v>
       </c>
       <c r="E338" t="s">
@@ -11792,7 +11798,7 @@
       <c r="B339" t="s">
         <v>715</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="2" t="s">
         <v>716</v>
       </c>
       <c r="E339" t="s">
@@ -11812,10 +11818,10 @@
       <c r="B340" t="s">
         <v>1083</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E340" t="s">
@@ -11835,7 +11841,7 @@
       <c r="B341" t="s">
         <v>1053</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="E341" t="s">
@@ -11855,7 +11861,7 @@
       <c r="B342" t="s">
         <v>752</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="2" t="s">
         <v>753</v>
       </c>
       <c r="E342" t="s">
@@ -11875,10 +11881,10 @@
       <c r="B343" t="s">
         <v>974</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="1" t="s">
         <v>976</v>
       </c>
       <c r="E343" t="s">
@@ -11898,10 +11904,10 @@
       <c r="B344" t="s">
         <v>1123</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E344" t="s">
@@ -11921,10 +11927,10 @@
       <c r="B345" t="s">
         <v>1402</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="1" t="s">
         <v>1404</v>
       </c>
       <c r="E345" t="s">
@@ -11944,10 +11950,10 @@
       <c r="B346" t="s">
         <v>1186</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="E346" t="s">
@@ -11967,10 +11973,10 @@
       <c r="B347" t="s">
         <v>1095</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="E347" t="s">
@@ -11990,7 +11996,7 @@
       <c r="B348" t="s">
         <v>1129</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="2" t="s">
         <v>1130</v>
       </c>
       <c r="E348" t="s">
@@ -12010,7 +12016,7 @@
       <c r="B349" t="s">
         <v>1244</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="2" t="s">
         <v>1245</v>
       </c>
       <c r="E349" t="s">
@@ -12030,7 +12036,7 @@
       <c r="B350" t="s">
         <v>1226</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="2" t="s">
         <v>1227</v>
       </c>
       <c r="E350" t="s">
@@ -12050,7 +12056,7 @@
       <c r="B351" t="s">
         <v>1359</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="2" t="s">
         <v>1360</v>
       </c>
       <c r="E351" t="s">
@@ -12070,10 +12076,10 @@
       <c r="B352" t="s">
         <v>1258</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E352" t="s">
@@ -12093,10 +12099,10 @@
       <c r="B353" t="s">
         <v>1291</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="E353" t="s">
@@ -12116,10 +12122,10 @@
       <c r="B354" t="s">
         <v>1295</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="E354" t="s">
@@ -12139,11 +12145,11 @@
       <c r="B355" t="s">
         <v>1298</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="D355" s="1">
-        <v>422397062</v>
+      <c r="D355" s="1" t="s">
+        <v>1412</v>
       </c>
       <c r="E355" t="s">
         <v>1299</v>
@@ -12162,7 +12168,7 @@
       <c r="B356" t="s">
         <v>1120</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="E356" t="s">
@@ -12182,7 +12188,7 @@
       <c r="B357" t="s">
         <v>1101</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="2" t="s">
         <v>1102</v>
       </c>
       <c r="E357" t="s">
@@ -12202,7 +12208,7 @@
       <c r="B358" t="s">
         <v>1285</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="E358" t="s">
@@ -12222,7 +12228,7 @@
       <c r="B359" t="s">
         <v>1285</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="E359" t="s">
@@ -12242,7 +12248,7 @@
       <c r="B360" t="s">
         <v>1311</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="2" t="s">
         <v>1312</v>
       </c>
       <c r="E360" t="s">
@@ -12262,10 +12268,10 @@
       <c r="B361" t="s">
         <v>1180</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="E361" t="s">
@@ -12285,10 +12291,10 @@
       <c r="B362" t="s">
         <v>1144</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E362" t="s">
@@ -12308,10 +12314,10 @@
       <c r="B363" t="s">
         <v>1347</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E363" t="s">
@@ -12331,10 +12337,10 @@
       <c r="B364" t="s">
         <v>1365</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E364" t="s">
@@ -12354,10 +12360,10 @@
       <c r="B365" t="s">
         <v>1367</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E365" t="s">
@@ -12377,10 +12383,10 @@
       <c r="B366" t="s">
         <v>1126</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E366" t="s">
@@ -12400,10 +12406,10 @@
       <c r="B367" t="s">
         <v>1148</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E367" t="s">
@@ -12423,7 +12429,7 @@
       <c r="B368" t="s">
         <v>1107</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="2" t="s">
         <v>1108</v>
       </c>
       <c r="E368" t="s">
@@ -12443,7 +12449,7 @@
       <c r="B369" t="s">
         <v>1113</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="2" t="s">
         <v>1114</v>
       </c>
       <c r="E369" t="s">
@@ -12463,7 +12469,7 @@
       <c r="B370" t="s">
         <v>1142</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="E370" t="s">
@@ -12483,10 +12489,10 @@
       <c r="B371" t="s">
         <v>1184</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="E371" t="s">
@@ -12506,7 +12512,7 @@
       <c r="B372" t="s">
         <v>1089</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="2" t="s">
         <v>720</v>
       </c>
       <c r="E372" t="s">
@@ -12526,10 +12532,10 @@
       <c r="B373" t="s">
         <v>1137</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E373" t="s">
@@ -12549,7 +12555,7 @@
       <c r="B374" t="s">
         <v>1166</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="2" t="s">
         <v>1167</v>
       </c>
       <c r="E374" t="s">
@@ -12569,7 +12575,7 @@
       <c r="B375" t="s">
         <v>1241</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="2" t="s">
         <v>1242</v>
       </c>
       <c r="E375" t="s">
@@ -12589,10 +12595,10 @@
       <c r="B376" t="s">
         <v>1235</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="E376" t="s">
@@ -12612,7 +12618,7 @@
       <c r="B377" t="s">
         <v>1270</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="2" t="s">
         <v>1271</v>
       </c>
       <c r="E377" t="s">
@@ -12632,10 +12638,10 @@
       <c r="B378" t="s">
         <v>1248</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="E378" t="s">
@@ -12655,7 +12661,7 @@
       <c r="B379" t="s">
         <v>1356</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="2" t="s">
         <v>1357</v>
       </c>
       <c r="E379" t="s">
@@ -12675,7 +12681,7 @@
       <c r="B380" t="s">
         <v>1219</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="2" t="s">
         <v>1357</v>
       </c>
       <c r="E380" t="s">
@@ -12695,7 +12701,7 @@
       <c r="B381" t="s">
         <v>1174</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="2" t="s">
         <v>1175</v>
       </c>
       <c r="E381" t="s">
@@ -12715,7 +12721,7 @@
       <c r="B382" t="s">
         <v>1128</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="2" t="s">
         <v>1062</v>
       </c>
       <c r="E382" t="s">
@@ -12735,7 +12741,7 @@
       <c r="B383" t="s">
         <v>1160</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="E383" t="s">
@@ -12755,7 +12761,7 @@
       <c r="B384" t="s">
         <v>1263</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="2" t="s">
         <v>1264</v>
       </c>
       <c r="E384" t="s">
@@ -12775,10 +12781,10 @@
       <c r="B385" t="s">
         <v>1266</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="E385" t="s">
@@ -12798,10 +12804,10 @@
       <c r="B386" t="s">
         <v>1289</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="E386" t="s">
@@ -12821,7 +12827,7 @@
       <c r="B387" t="s">
         <v>1321</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E387" t="s">
@@ -12841,7 +12847,7 @@
       <c r="B388" t="s">
         <v>1326</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E388" t="s">
@@ -12861,7 +12867,7 @@
       <c r="B389" t="s">
         <v>1327</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E389" t="s">
@@ -12881,7 +12887,7 @@
       <c r="B390" t="s">
         <v>1328</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E390" t="s">
@@ -12901,7 +12907,7 @@
       <c r="B391" t="s">
         <v>1329</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E391" t="s">
@@ -12921,7 +12927,7 @@
       <c r="B392" t="s">
         <v>1330</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="E392" t="s">
@@ -12941,7 +12947,7 @@
       <c r="B393" t="s">
         <v>1098</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="E393" t="s">
@@ -12961,10 +12967,10 @@
       <c r="B394" t="s">
         <v>1190</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E394" t="s">
@@ -12984,7 +12990,7 @@
       <c r="B395" t="s">
         <v>1276</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="2" t="s">
         <v>1277</v>
       </c>
       <c r="E395" t="s">
@@ -13004,10 +13010,10 @@
       <c r="B396" t="s">
         <v>1339</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E396" t="s">
@@ -13027,7 +13033,7 @@
       <c r="B397" t="s">
         <v>1133</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="2" t="s">
         <v>1134</v>
       </c>
       <c r="E397" t="s">
@@ -13047,7 +13053,7 @@
       <c r="B398" t="s">
         <v>1279</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="2" t="s">
         <v>1280</v>
       </c>
       <c r="E398" t="s">
@@ -13067,7 +13073,7 @@
       <c r="B399" t="s">
         <v>1362</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="2" t="s">
         <v>1363</v>
       </c>
       <c r="E399" t="s">
@@ -13087,10 +13093,10 @@
       <c r="B400" t="s">
         <v>1383</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="1" t="s">
         <v>848</v>
       </c>
       <c r="E400" t="s">
@@ -13110,7 +13116,7 @@
       <c r="B401" t="s">
         <v>1222</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="2" t="s">
         <v>1223</v>
       </c>
       <c r="F401">
@@ -13127,10 +13133,10 @@
       <c r="B402" t="s">
         <v>1373</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E402" t="s">
@@ -13150,10 +13156,10 @@
       <c r="B403" t="s">
         <v>1399</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E403" t="s">
@@ -13173,10 +13179,10 @@
       <c r="B404" t="s">
         <v>1252</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E404" t="s">
@@ -13196,10 +13202,10 @@
       <c r="B405" t="s">
         <v>1156</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E405" t="s">
@@ -13219,10 +13225,10 @@
       <c r="B406" t="s">
         <v>1193</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="E406" t="s">
@@ -13242,10 +13248,10 @@
       <c r="B407" t="s">
         <v>1398</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="E407" t="s">
@@ -13265,7 +13271,7 @@
       <c r="B408" t="s">
         <v>1228</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="E408" t="s">
@@ -13285,10 +13291,10 @@
       <c r="B409" t="s">
         <v>1369</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E409" t="s">
@@ -13308,10 +13314,10 @@
       <c r="B410" t="s">
         <v>1146</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E410" t="s">
@@ -13331,7 +13337,7 @@
       <c r="B411" t="s">
         <v>1406</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="2" t="s">
         <v>1407</v>
       </c>
       <c r="E411" t="s">
@@ -13351,10 +13357,10 @@
       <c r="B412" t="s">
         <v>1250</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E412" t="s">
@@ -13374,10 +13380,10 @@
       <c r="B413" t="s">
         <v>1197</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="E413" t="s">
@@ -13397,10 +13403,10 @@
       <c r="B414" t="s">
         <v>1260</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="E414" t="s">
@@ -13420,7 +13426,7 @@
       <c r="B415" t="s">
         <v>1336</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="2" t="s">
         <v>1198</v>
       </c>
       <c r="E415" t="s">
@@ -13440,7 +13446,7 @@
       <c r="B416" t="s">
         <v>1387</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="2" t="s">
         <v>1388</v>
       </c>
       <c r="E416" t="s">
@@ -13460,7 +13466,7 @@
       <c r="B417" t="s">
         <v>1390</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="2" t="s">
         <v>1391</v>
       </c>
       <c r="F417">
@@ -13477,7 +13483,7 @@
       <c r="B418" t="s">
         <v>1409</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="2" t="s">
         <v>1410</v>
       </c>
       <c r="E418" t="s">
@@ -13497,7 +13503,7 @@
       <c r="B419" t="s">
         <v>1110</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="2" t="s">
         <v>1111</v>
       </c>
       <c r="E419" t="s">
@@ -13517,7 +13523,7 @@
       <c r="B420" t="s">
         <v>1110</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="E420" t="s">
@@ -13537,7 +13543,7 @@
       <c r="B421" t="s">
         <v>1308</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="2" t="s">
         <v>1309</v>
       </c>
       <c r="E421" t="s">
@@ -13557,7 +13563,7 @@
       <c r="B422" t="s">
         <v>1157</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="2" t="s">
         <v>1158</v>
       </c>
       <c r="E422" t="s">
@@ -13577,10 +13583,10 @@
       <c r="B423" t="s">
         <v>1230</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E423" t="s">
@@ -13600,7 +13606,7 @@
       <c r="B424" t="s">
         <v>1177</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="2" t="s">
         <v>1178</v>
       </c>
       <c r="E424" t="s">
@@ -13620,10 +13626,10 @@
       <c r="B425" t="s">
         <v>1201</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="E425" t="s">
@@ -13643,7 +13649,7 @@
       <c r="B426" t="s">
         <v>1163</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="2" t="s">
         <v>1164</v>
       </c>
       <c r="E426" t="s">
@@ -13663,7 +13669,7 @@
       <c r="B427" t="s">
         <v>1220</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="E427" t="s">
@@ -13683,10 +13689,10 @@
       <c r="B428" t="s">
         <v>1300</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="E428" t="s">
@@ -13706,10 +13712,10 @@
       <c r="B429" t="s">
         <v>1091</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="E429" t="s">
@@ -13729,7 +13735,7 @@
       <c r="B430" t="s">
         <v>1334</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="2" t="s">
         <v>1335</v>
       </c>
       <c r="F430">
@@ -13746,7 +13752,7 @@
       <c r="B431" t="s">
         <v>1318</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="2" t="s">
         <v>1319</v>
       </c>
       <c r="E431" t="s">
@@ -13766,7 +13772,7 @@
       <c r="B432" t="s">
         <v>1346</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="2" t="s">
         <v>1319</v>
       </c>
       <c r="E432" t="s">
@@ -13786,10 +13792,10 @@
       <c r="B433" t="s">
         <v>1135</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E433" t="s">
@@ -13809,7 +13815,7 @@
       <c r="B434" t="s">
         <v>1152</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="E434" t="s">
@@ -13829,10 +13835,10 @@
       <c r="B435" t="s">
         <v>1395</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="E435" t="s">
@@ -13852,10 +13858,10 @@
       <c r="B436" t="s">
         <v>1205</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="E436" t="s">
@@ -13875,10 +13881,10 @@
       <c r="B437" t="s">
         <v>1154</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E437" t="s">
@@ -13898,10 +13904,10 @@
       <c r="B438" t="s">
         <v>1209</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="1" t="s">
         <v>755</v>
       </c>
       <c r="E438" t="s">
@@ -13921,10 +13927,10 @@
       <c r="B439" t="s">
         <v>1392</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E439" t="s">
@@ -13944,7 +13950,7 @@
       <c r="B440" t="s">
         <v>1131</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="2" t="s">
         <v>1132</v>
       </c>
       <c r="E440" t="s">
@@ -13964,10 +13970,10 @@
       <c r="B441" t="s">
         <v>1304</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="E441" t="s">
@@ -13987,10 +13993,10 @@
       <c r="B442" t="s">
         <v>1337</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="E442" t="s">
@@ -14010,10 +14016,10 @@
       <c r="B443" t="s">
         <v>1381</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E443" t="s">
@@ -14033,7 +14039,7 @@
       <c r="B444" t="s">
         <v>1350</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="2" t="s">
         <v>1351</v>
       </c>
       <c r="E444" t="s">
@@ -14053,10 +14059,10 @@
       <c r="B445" t="s">
         <v>1150</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E445" t="s">
@@ -14076,7 +14082,7 @@
       <c r="B446" t="s">
         <v>1116</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="E446" t="s">
@@ -14096,10 +14102,10 @@
       <c r="B447" t="s">
         <v>1255</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="E447" t="s">
@@ -14119,10 +14125,10 @@
       <c r="B448" t="s">
         <v>1342</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="E448" t="s">
@@ -14142,10 +14148,10 @@
       <c r="B449" t="s">
         <v>1232</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E449" t="s">
@@ -14165,7 +14171,7 @@
       <c r="B450" t="s">
         <v>1331</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="2" t="s">
         <v>1332</v>
       </c>
       <c r="E450" t="s">
@@ -14185,10 +14191,10 @@
       <c r="B451" t="s">
         <v>1379</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E451" t="s">
@@ -14208,10 +14214,10 @@
       <c r="B452" t="s">
         <v>1314</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="E452" t="s">
@@ -14231,10 +14237,10 @@
       <c r="B453" t="s">
         <v>1377</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E453" t="s">
@@ -14254,10 +14260,10 @@
       <c r="B454" t="s">
         <v>1138</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E454" t="s">
@@ -14277,7 +14283,7 @@
       <c r="B455" t="s">
         <v>1216</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="2" t="s">
         <v>1217</v>
       </c>
       <c r="E455" t="s">
@@ -14297,10 +14303,10 @@
       <c r="B456" t="s">
         <v>1253</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E456" t="s">
@@ -14320,7 +14326,7 @@
       <c r="B457" t="s">
         <v>1282</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="2" t="s">
         <v>1283</v>
       </c>
       <c r="E457" t="s">
@@ -14340,7 +14346,7 @@
       <c r="B458" t="s">
         <v>1353</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C458" s="2" t="s">
         <v>1354</v>
       </c>
       <c r="E458" t="s">
@@ -14360,10 +14366,10 @@
       <c r="B459" t="s">
         <v>1224</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E459" t="s">
@@ -14383,10 +14389,10 @@
       <c r="B460" t="s">
         <v>1371</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E460" t="s">
@@ -14406,10 +14412,10 @@
       <c r="B461" t="s">
         <v>1212</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="E461" t="s">
@@ -14429,10 +14435,10 @@
       <c r="B462" t="s">
         <v>1375</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E462" t="s">
@@ -14452,7 +14458,7 @@
       <c r="B463" t="s">
         <v>1104</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="E463" t="s">
@@ -14472,10 +14478,10 @@
       <c r="B464" t="s">
         <v>1140</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E464" t="s">
@@ -14495,7 +14501,7 @@
       <c r="B465" t="s">
         <v>1323</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="2" t="s">
         <v>1324</v>
       </c>
       <c r="E465" t="s">
@@ -14515,7 +14521,7 @@
       <c r="B466" t="s">
         <v>1169</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="2" t="s">
         <v>1170</v>
       </c>
       <c r="E466" t="s">
@@ -14535,7 +14541,7 @@
       <c r="B467" t="s">
         <v>1169</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="2" t="s">
         <v>1239</v>
       </c>
       <c r="E467" t="s">
@@ -14555,7 +14561,7 @@
       <c r="B468" t="s">
         <v>1273</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="2" t="s">
         <v>1274</v>
       </c>
       <c r="E468" t="s">
@@ -14573,5 +14579,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>